--- a/Code/Results/Cases/Case_4_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5104148889146103</v>
+        <v>0.3428084429008038</v>
       </c>
       <c r="C2">
-        <v>0.8327117758543068</v>
+        <v>0.4025838691005106</v>
       </c>
       <c r="D2">
-        <v>0.1919219537087855</v>
+        <v>0.07676214029817174</v>
       </c>
       <c r="E2">
-        <v>0.286267572220325</v>
+        <v>0.1109755168374491</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000827470683801117</v>
+        <v>0.002572678534647335</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.633635620893273</v>
+        <v>4.687047288554481</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.185912630000303</v>
+        <v>0.7055059354176478</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6512608697191666</v>
+        <v>0.3135549174527412</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4302936611492356</v>
+        <v>0.3369770500565892</v>
       </c>
       <c r="C3">
-        <v>0.7237261943607507</v>
+        <v>0.3730551800777278</v>
       </c>
       <c r="D3">
-        <v>0.1651511981348648</v>
+        <v>0.06987585593830659</v>
       </c>
       <c r="E3">
-        <v>0.2463733134587898</v>
+        <v>0.1004564779350261</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008385302143018217</v>
+        <v>0.002578559251130494</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.485245682002244</v>
+        <v>4.346998500202233</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.018181507117248</v>
+        <v>0.6753379242549045</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.560004344900932</v>
+        <v>0.2929445366650967</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3837039723432838</v>
+        <v>0.3340559129126035</v>
       </c>
       <c r="C4">
-        <v>0.6582567682818024</v>
+        <v>0.355063877279548</v>
       </c>
       <c r="D4">
-        <v>0.1490968950543845</v>
+        <v>0.06569142156747887</v>
       </c>
       <c r="E4">
-        <v>0.2224671166282377</v>
+        <v>0.09404779429636534</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008454335705086289</v>
+        <v>0.002582348256191192</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.792998311594431</v>
+        <v>4.137664757909022</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9189051389520557</v>
+        <v>0.6576085255159967</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.505628541963894</v>
+        <v>0.280549526496813</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3652851948187674</v>
+        <v>0.3330297943573015</v>
       </c>
       <c r="C5">
-        <v>0.6318868797451387</v>
+        <v>0.3477666149499044</v>
       </c>
       <c r="D5">
-        <v>0.142636547019805</v>
+        <v>0.06399703412063218</v>
       </c>
       <c r="E5">
-        <v>0.2128505229236595</v>
+        <v>0.09144842194680081</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008482787860997124</v>
+        <v>0.002583937303702359</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.513568989529261</v>
+        <v>4.052212590666244</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8792548650770868</v>
+        <v>0.6505814135778962</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4838264198061282</v>
+        <v>0.2755628918220623</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.36225862633151</v>
+        <v>0.3328692851907533</v>
       </c>
       <c r="C6">
-        <v>0.6275253816864961</v>
+        <v>0.3465569633296468</v>
       </c>
       <c r="D6">
-        <v>0.1415683666988343</v>
+        <v>0.06371632901641533</v>
       </c>
       <c r="E6">
-        <v>0.2112606500012362</v>
+        <v>0.09101752548487241</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008487532672620399</v>
+        <v>0.002584203886853864</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.467315572612733</v>
+        <v>4.038014140695253</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8727161721313053</v>
+        <v>0.6494264574575652</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4802260978076944</v>
+        <v>0.2747387302704141</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3834533839669092</v>
+        <v>0.3340414112062291</v>
       </c>
       <c r="C7">
-        <v>0.6578999498432268</v>
+        <v>0.3549653257512659</v>
       </c>
       <c r="D7">
-        <v>0.1490094547917664</v>
+        <v>0.06566852698918524</v>
       </c>
       <c r="E7">
-        <v>0.2223369444638337</v>
+        <v>0.09401268926172435</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008454718076875188</v>
+        <v>0.002582369504327559</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.789219738473406</v>
+        <v>4.136512929055698</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9183672974380102</v>
+        <v>0.6575129571321554</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5053331419666733</v>
+        <v>0.280482015300187</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4821919206573995</v>
+        <v>0.3406599940489201</v>
       </c>
       <c r="C8">
-        <v>0.7947980549905083</v>
+        <v>0.3923729907542679</v>
       </c>
       <c r="D8">
-        <v>0.1826026980690472</v>
+        <v>0.07437853898568392</v>
       </c>
       <c r="E8">
-        <v>0.2723752437110463</v>
+        <v>0.1073379391361442</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008312629570423224</v>
+        <v>0.002574669326024547</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.23463709490423</v>
+        <v>4.56990454776664</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.127227038383097</v>
+        <v>0.6949380896863886</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6194135418732287</v>
+        <v>0.3063939690205757</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.70111457105412</v>
+        <v>0.358942652844064</v>
       </c>
       <c r="C9">
-        <v>1.077592212020306</v>
+        <v>0.4668724960314989</v>
       </c>
       <c r="D9">
-        <v>0.2522677324318323</v>
+        <v>0.09181636502879087</v>
       </c>
       <c r="E9">
-        <v>0.3763604810408268</v>
+        <v>0.1338838641308087</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008041028827136743</v>
+        <v>0.00256097504593471</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.20073061713705</v>
+        <v>5.415999429335443</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.572924675897241</v>
+        <v>0.7747183933206259</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8594007493491915</v>
+        <v>0.3593134431116312</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8850849842291382</v>
+        <v>0.375711746789591</v>
       </c>
       <c r="C10">
-        <v>1.298788790681726</v>
+        <v>0.522361489121522</v>
       </c>
       <c r="D10">
-        <v>0.3069939072664027</v>
+        <v>0.1048615259798567</v>
       </c>
       <c r="E10">
-        <v>0.4582923545393243</v>
+        <v>0.1536673728393083</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007842630208387221</v>
+        <v>0.002551759061235396</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.50864552099554</v>
+        <v>6.03609766053853</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.933484645889052</v>
+        <v>0.8373632523684478</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.050838610475971</v>
+        <v>0.3995439904804314</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9759843491859499</v>
+        <v>0.3840881047399023</v>
       </c>
       <c r="C11">
-        <v>1.403637385859895</v>
+        <v>0.5477816231671682</v>
       </c>
       <c r="D11">
-        <v>0.3330029613529888</v>
+        <v>0.1108503612981622</v>
       </c>
       <c r="E11">
-        <v>0.4973164163868518</v>
+        <v>0.1627343312406211</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000775174909974424</v>
+        <v>0.00254774746416999</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.59997158852997</v>
+        <v>6.318039103252829</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.107825370337537</v>
+        <v>0.8667675288001533</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.14267317392013</v>
+        <v>0.4181541572932588</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.011672697172912</v>
+        <v>0.3873694648953006</v>
       </c>
       <c r="C12">
-        <v>1.44408362370865</v>
+        <v>0.5574341117093127</v>
       </c>
       <c r="D12">
-        <v>0.3430476594036378</v>
+        <v>0.1131262842272633</v>
       </c>
       <c r="E12">
-        <v>0.512403174953711</v>
+        <v>0.1661779000498314</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007717153904286841</v>
+        <v>0.002546254179723752</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.02057660484724</v>
+        <v>6.424795493171075</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.175655260874038</v>
+        <v>0.878034955018876</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.178284291560431</v>
+        <v>0.4252469508129764</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.003926040879776</v>
+        <v>0.3866578690823417</v>
       </c>
       <c r="C13">
-        <v>1.435337346178358</v>
+        <v>0.5553540860911994</v>
       </c>
       <c r="D13">
-        <v>0.3408750111571948</v>
+        <v>0.1126357602170316</v>
       </c>
       <c r="E13">
-        <v>0.509139182373616</v>
+        <v>0.1654358094628137</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007724614260506968</v>
+        <v>0.00254657463976867</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.92964017443518</v>
+        <v>6.401803787892334</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.160960394422801</v>
+        <v>0.8756023762107361</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.170574873236085</v>
+        <v>0.4237173485184655</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9788935712083457</v>
+        <v>0.3843558606209285</v>
       </c>
       <c r="C14">
-        <v>1.406949175322779</v>
+        <v>0.5485752044487526</v>
       </c>
       <c r="D14">
-        <v>0.3338251952981039</v>
+        <v>0.111037439496485</v>
       </c>
       <c r="E14">
-        <v>0.4985510469267567</v>
+        <v>0.1630174306660592</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007748907127544288</v>
+        <v>0.002547624094217803</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.63441893324296</v>
+        <v>6.326822120567044</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.113367366815453</v>
+        <v>0.8676918347605351</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.145585192540032</v>
+        <v>0.4187367669732467</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9637330827999904</v>
+        <v>0.3829601187035507</v>
       </c>
       <c r="C15">
-        <v>1.389661737052336</v>
+        <v>0.5444264120208118</v>
       </c>
       <c r="D15">
-        <v>0.3295336301378597</v>
+        <v>0.1100594815107456</v>
       </c>
       <c r="E15">
-        <v>0.4921076700653089</v>
+        <v>0.1615374329987063</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007763760727006994</v>
+        <v>0.002548270272883181</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.45458946588059</v>
+        <v>6.280892910624345</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.084461951140383</v>
+        <v>0.8628637447767176</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.130392146921466</v>
+        <v>0.4156919784486064</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8793081672910716</v>
+        <v>0.3751795414170829</v>
       </c>
       <c r="C16">
-        <v>1.292032638105752</v>
+        <v>0.5207038759892839</v>
       </c>
       <c r="D16">
-        <v>0.3053194438292337</v>
+        <v>0.1044712591179007</v>
       </c>
       <c r="E16">
-        <v>0.4557819388274709</v>
+        <v>0.1530762169850206</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007848549547917385</v>
+        <v>0.002552024851408854</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.43827106487342</v>
+        <v>6.017670243611093</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.922325177685735</v>
+        <v>0.8354600536592329</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.044944902327245</v>
+        <v>0.3983340837916387</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8295121046238876</v>
+        <v>0.3705992983081501</v>
       </c>
       <c r="C17">
-        <v>1.233310430820438</v>
+        <v>0.5061970358735834</v>
       </c>
       <c r="D17">
-        <v>0.2907732452556218</v>
+        <v>0.1010572002795698</v>
       </c>
       <c r="E17">
-        <v>0.4339834138275975</v>
+        <v>0.1479030823171215</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007900344993894834</v>
+        <v>0.002554374344281834</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.8263114154075</v>
+        <v>5.856163186903217</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.825715149784685</v>
+        <v>0.8188826291386135</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9938411760052688</v>
+        <v>0.3877655039485504</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8015331682298381</v>
+        <v>0.3680351569938409</v>
       </c>
       <c r="C18">
-        <v>1.199923225880354</v>
+        <v>0.4978697789334205</v>
       </c>
       <c r="D18">
-        <v>0.2825090141876672</v>
+        <v>0.0990986414959707</v>
       </c>
       <c r="E18">
-        <v>0.4216064513932523</v>
+        <v>0.1449339446177049</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000793008350829916</v>
+        <v>0.002555742738790556</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.47813260420435</v>
+        <v>5.763254278335495</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.771095991760092</v>
+        <v>0.8094329480325086</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9648838876819923</v>
+        <v>0.3817157631771977</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7921675023307841</v>
+        <v>0.3671789999763746</v>
       </c>
       <c r="C19">
-        <v>1.188681884160587</v>
+        <v>0.4950531543778425</v>
       </c>
       <c r="D19">
-        <v>0.2797274960826144</v>
+        <v>0.09843637886405077</v>
       </c>
       <c r="E19">
-        <v>0.4174419112714745</v>
+        <v>0.1439297169890779</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000794014584536449</v>
+        <v>0.002556208983901861</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.36086065105607</v>
+        <v>5.731794095457758</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.752756859276445</v>
+        <v>0.8062480159774736</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9551502085360539</v>
+        <v>0.3796723777594337</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8347429050432709</v>
+        <v>0.3710795846238284</v>
       </c>
       <c r="C20">
-        <v>1.2395204337314</v>
+        <v>0.5077395799179385</v>
       </c>
       <c r="D20">
-        <v>0.2923108841880122</v>
+        <v>0.1014201013010165</v>
       </c>
       <c r="E20">
-        <v>0.436286866128718</v>
+        <v>0.1484531149593238</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007894837346212701</v>
+        <v>0.002554122475549994</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.89105265942385</v>
+        <v>5.873357284492442</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.835899141296125</v>
+        <v>0.8206384886090348</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9992350998106545</v>
+        <v>0.3888875353987444</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9862097582524996</v>
+        <v>0.3850290318513885</v>
       </c>
       <c r="C21">
-        <v>1.415266112593315</v>
+        <v>0.5505656019679463</v>
       </c>
       <c r="D21">
-        <v>0.3358902694954509</v>
+        <v>0.1115066837796803</v>
       </c>
       <c r="E21">
-        <v>0.5016521333518327</v>
+        <v>0.1637274893725618</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007741777432025451</v>
+        <v>0.002547315144847941</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.7209208697376</v>
+        <v>6.348846193260215</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.127294500052869</v>
+        <v>0.8700117337219808</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.152901221632092</v>
+        <v>0.4201984401742465</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.092730559549125</v>
+        <v>0.3947844458495524</v>
       </c>
       <c r="C22">
-        <v>1.534536692102279</v>
+        <v>0.5787093793788358</v>
       </c>
       <c r="D22">
-        <v>0.3655342115062012</v>
+        <v>0.1181460660639004</v>
       </c>
       <c r="E22">
-        <v>0.5462100248863635</v>
+        <v>0.1737692991173674</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007640635928569537</v>
+        <v>0.002543016578669899</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.9605043176191</v>
+        <v>6.659560636549486</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.328498277661254</v>
+        <v>0.903054366896697</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.2582956093447</v>
+        <v>0.4409278132319514</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.035100026602066</v>
+        <v>0.3895187394163315</v>
       </c>
       <c r="C23">
-        <v>1.470424160735945</v>
+        <v>0.563674092438589</v>
       </c>
       <c r="D23">
-        <v>0.3495926522745663</v>
+        <v>0.1145981015604747</v>
       </c>
       <c r="E23">
-        <v>0.5222383394222803</v>
+        <v>0.1684042438789604</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007694753221537007</v>
+        <v>0.002545297099904363</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.2943877642918</v>
+        <v>6.493726572825153</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.220000577662461</v>
+        <v>0.885347274439539</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.201531193659569</v>
+        <v>0.4298394645742292</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8323760538380043</v>
+        <v>0.3708622320845905</v>
       </c>
       <c r="C24">
-        <v>1.236711739444445</v>
+        <v>0.507042155581189</v>
       </c>
       <c r="D24">
-        <v>0.2916154131630009</v>
+        <v>0.1012560205942634</v>
       </c>
       <c r="E24">
-        <v>0.4352449957468849</v>
+        <v>0.1482044297648812</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007897327469572075</v>
+        <v>0.002554236290380429</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.86177189038295</v>
+        <v>5.865584009398077</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.831292106747156</v>
+        <v>0.8198444127242794</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9967952005811824</v>
+        <v>0.3883801832159008</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6384661729696006</v>
+        <v>0.3534183430525673</v>
       </c>
       <c r="C25">
-        <v>0.9991152187302532</v>
+        <v>0.4465901665128627</v>
       </c>
       <c r="D25">
-        <v>0.2329004076792103</v>
+        <v>0.08705909837364345</v>
       </c>
       <c r="E25">
-        <v>0.3474192116622916</v>
+        <v>0.126655266782187</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000811404529836309</v>
+        <v>0.002564530434037593</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.37968662921583</v>
+        <v>5.187433704547914</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.447452240018009</v>
+        <v>0.7524378768213751</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7922509804760836</v>
+        <v>0.3447650345438902</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3428084429008038</v>
+        <v>0.510414888914795</v>
       </c>
       <c r="C2">
-        <v>0.4025838691005106</v>
+        <v>0.8327117758531415</v>
       </c>
       <c r="D2">
-        <v>0.07676214029817174</v>
+        <v>0.1919219537087287</v>
       </c>
       <c r="E2">
-        <v>0.1109755168374491</v>
+        <v>0.2862675722206376</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002572678534647335</v>
+        <v>0.0008274706839353919</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.687047288554481</v>
+        <v>9.633635620893358</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7055059354176478</v>
+        <v>1.185912630000473</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3135549174527412</v>
+        <v>0.6512608697192235</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3369770500565892</v>
+        <v>0.4302936611495056</v>
       </c>
       <c r="C3">
-        <v>0.3730551800777278</v>
+        <v>0.7237261943612054</v>
       </c>
       <c r="D3">
-        <v>0.06987585593830659</v>
+        <v>0.1651511981350211</v>
       </c>
       <c r="E3">
-        <v>0.1004564779350261</v>
+        <v>0.2463733134587258</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002578559251130494</v>
+        <v>0.0008385302143967418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.346998500202233</v>
+        <v>8.485245682002414</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6753379242549045</v>
+        <v>1.018181507117333</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2929445366650967</v>
+        <v>0.5600043449008965</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3340559129126035</v>
+        <v>0.3837039723430422</v>
       </c>
       <c r="C4">
-        <v>0.355063877279548</v>
+        <v>0.6582567682821718</v>
       </c>
       <c r="D4">
-        <v>0.06569142156747887</v>
+        <v>0.1490968950539582</v>
       </c>
       <c r="E4">
-        <v>0.09404779429636534</v>
+        <v>0.2224671166283088</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002582348256191192</v>
+        <v>0.0008454335703607638</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.137664757909022</v>
+        <v>7.79299831159463</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6576085255159967</v>
+        <v>0.9189051389519136</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.280549526496813</v>
+        <v>0.5056285419638584</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3330297943573015</v>
+        <v>0.3652851948186253</v>
       </c>
       <c r="C5">
-        <v>0.3477666149499044</v>
+        <v>0.6318868797451103</v>
       </c>
       <c r="D5">
-        <v>0.06399703412063218</v>
+        <v>0.1426365470194497</v>
       </c>
       <c r="E5">
-        <v>0.09144842194680081</v>
+        <v>0.2128505229236168</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002583937303702359</v>
+        <v>0.0008482787858372319</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.052212590666244</v>
+        <v>7.513568989529347</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6505814135778962</v>
+        <v>0.8792548650772289</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2755628918220623</v>
+        <v>0.4838264198061353</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3328692851907533</v>
+        <v>0.3622586263313963</v>
       </c>
       <c r="C6">
-        <v>0.3465569633296468</v>
+        <v>0.6275253816856434</v>
       </c>
       <c r="D6">
-        <v>0.06371632901641533</v>
+        <v>0.141568366698678</v>
       </c>
       <c r="E6">
-        <v>0.09101752548487241</v>
+        <v>0.2112606500011438</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002584203886853864</v>
+        <v>0.000848753267277613</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.038014140695253</v>
+        <v>7.467315572612677</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6494264574575652</v>
+        <v>0.8727161721312484</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2747387302704141</v>
+        <v>0.4802260978077157</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3340414112062291</v>
+        <v>0.3834533839671508</v>
       </c>
       <c r="C7">
-        <v>0.3549653257512659</v>
+        <v>0.6578999498426299</v>
       </c>
       <c r="D7">
-        <v>0.06566852698918524</v>
+        <v>0.1490094547918233</v>
       </c>
       <c r="E7">
-        <v>0.09401268926172435</v>
+        <v>0.2223369444638834</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002582369504327559</v>
+        <v>0.0008454718080288517</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.136512929055698</v>
+        <v>7.789219738473577</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6575129571321554</v>
+        <v>0.9183672974380386</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.280482015300187</v>
+        <v>0.5053331419666662</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3406599940489201</v>
+        <v>0.4821919206574279</v>
       </c>
       <c r="C8">
-        <v>0.3923729907542679</v>
+        <v>0.7947980549905083</v>
       </c>
       <c r="D8">
-        <v>0.07437853898568392</v>
+        <v>0.182602698069303</v>
       </c>
       <c r="E8">
-        <v>0.1073379391361442</v>
+        <v>0.2723752437111173</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002574669326024547</v>
+        <v>0.0008312629572946354</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.56990454776664</v>
+        <v>9.234637094904258</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6949380896863886</v>
+        <v>1.127227038383012</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3063939690205757</v>
+        <v>0.61941354187325</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.358942652844064</v>
+        <v>0.7011145710540063</v>
       </c>
       <c r="C9">
-        <v>0.4668724960314989</v>
+        <v>1.077592212020363</v>
       </c>
       <c r="D9">
-        <v>0.09181636502879087</v>
+        <v>0.2522677324322729</v>
       </c>
       <c r="E9">
-        <v>0.1338838641308087</v>
+        <v>0.3763604810408694</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00256097504593471</v>
+        <v>0.0008041028827321055</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.415999429335443</v>
+        <v>12.20073061713686</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7747183933206259</v>
+        <v>1.572924675897212</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3593134431116312</v>
+        <v>0.85940074934922</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.375711746789591</v>
+        <v>0.8850849842296213</v>
       </c>
       <c r="C10">
-        <v>0.522361489121522</v>
+        <v>1.298788790682238</v>
       </c>
       <c r="D10">
-        <v>0.1048615259798567</v>
+        <v>0.3069939072660901</v>
       </c>
       <c r="E10">
-        <v>0.1536673728393083</v>
+        <v>0.4582923545393243</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002551759061235396</v>
+        <v>0.000784263020964519</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.03609766053853</v>
+        <v>14.50864552099534</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8373632523684478</v>
+        <v>1.933484645888939</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3995439904804314</v>
+        <v>1.050838610475957</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3840881047399023</v>
+        <v>0.975984349186291</v>
       </c>
       <c r="C11">
-        <v>0.5477816231671682</v>
+        <v>1.40363738586035</v>
       </c>
       <c r="D11">
-        <v>0.1108503612981622</v>
+        <v>0.3330029613530883</v>
       </c>
       <c r="E11">
-        <v>0.1627343312406211</v>
+        <v>0.4973164163867452</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00254774746416999</v>
+        <v>0.0007751749099220717</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.318039103252829</v>
+        <v>15.59997158853054</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8667675288001533</v>
+        <v>2.10782537033748</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4181541572932588</v>
+        <v>1.142673173920109</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3873694648953006</v>
+        <v>1.011672697173282</v>
       </c>
       <c r="C12">
-        <v>0.5574341117093127</v>
+        <v>1.444083623709503</v>
       </c>
       <c r="D12">
-        <v>0.1131262842272633</v>
+        <v>0.3430476594036378</v>
       </c>
       <c r="E12">
-        <v>0.1661779000498314</v>
+        <v>0.5124031749538176</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002546254179723752</v>
+        <v>0.0007717153907178259</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.424795493171075</v>
+        <v>16.02057660484724</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.878034955018876</v>
+        <v>2.175655260874123</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4252469508129764</v>
+        <v>1.178284291560516</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3866578690823417</v>
+        <v>1.003926040878866</v>
       </c>
       <c r="C13">
-        <v>0.5553540860911994</v>
+        <v>1.435337346178699</v>
       </c>
       <c r="D13">
-        <v>0.1126357602170316</v>
+        <v>0.3408750111574079</v>
       </c>
       <c r="E13">
-        <v>0.1654358094628137</v>
+        <v>0.5091391823736444</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00254657463976867</v>
+        <v>0.0007724614259161378</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.401803787892334</v>
+        <v>15.92964017443546</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8756023762107361</v>
+        <v>2.160960394423256</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4237173485184655</v>
+        <v>1.170574873236049</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3843558606209285</v>
+        <v>0.978893571207891</v>
       </c>
       <c r="C14">
-        <v>0.5485752044487526</v>
+        <v>1.406949175322495</v>
       </c>
       <c r="D14">
-        <v>0.111037439496485</v>
+        <v>0.3338251952977771</v>
       </c>
       <c r="E14">
-        <v>0.1630174306660592</v>
+        <v>0.4985510469267069</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002547624094217803</v>
+        <v>0.0007748907129498281</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.326822120567044</v>
+        <v>15.63441893324273</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8676918347605351</v>
+        <v>2.113367366815652</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4187367669732467</v>
+        <v>1.145585192539926</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3829601187035507</v>
+        <v>0.9637330828001325</v>
       </c>
       <c r="C15">
-        <v>0.5444264120208118</v>
+        <v>1.389661737051938</v>
       </c>
       <c r="D15">
-        <v>0.1100594815107456</v>
+        <v>0.3295336301383571</v>
       </c>
       <c r="E15">
-        <v>0.1615374329987063</v>
+        <v>0.4921076700653018</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002548270272883181</v>
+        <v>0.0007763760727129307</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.280892910624345</v>
+        <v>15.45458946588053</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8628637447767176</v>
+        <v>2.084461951140383</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4156919784486064</v>
+        <v>1.130392146921416</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3751795414170829</v>
+        <v>0.8793081672906453</v>
       </c>
       <c r="C16">
-        <v>0.5207038759892839</v>
+        <v>1.292032638105127</v>
       </c>
       <c r="D16">
-        <v>0.1044712591179007</v>
+        <v>0.3053194438295606</v>
       </c>
       <c r="E16">
-        <v>0.1530762169850206</v>
+        <v>0.4557819388275135</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002552024851408854</v>
+        <v>0.0007848549546762363</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.017670243611093</v>
+        <v>14.43827106487359</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8354600536592329</v>
+        <v>1.922325177685735</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3983340837916387</v>
+        <v>1.044944902327209</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3705992983081501</v>
+        <v>0.8295121046243992</v>
       </c>
       <c r="C17">
-        <v>0.5061970358735834</v>
+        <v>1.233310430819643</v>
       </c>
       <c r="D17">
-        <v>0.1010572002795698</v>
+        <v>0.2907732452554512</v>
       </c>
       <c r="E17">
-        <v>0.1479030823171215</v>
+        <v>0.4339834138275052</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002554374344281834</v>
+        <v>0.0007900344993066128</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.856163186903217</v>
+        <v>13.82631141540725</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8188826291386135</v>
+        <v>1.825715149784827</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3877655039485504</v>
+        <v>0.9938411760053469</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3680351569938409</v>
+        <v>0.801533168229156</v>
       </c>
       <c r="C18">
-        <v>0.4978697789334205</v>
+        <v>1.1999232258799</v>
       </c>
       <c r="D18">
-        <v>0.0990986414959707</v>
+        <v>0.2825090141872693</v>
       </c>
       <c r="E18">
-        <v>0.1449339446177049</v>
+        <v>0.4216064513934299</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002555742738790556</v>
+        <v>0.0007930083508199214</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.763254278335495</v>
+        <v>13.47813260420443</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8094329480325086</v>
+        <v>1.771095991759779</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3817157631771977</v>
+        <v>0.9648838876820918</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3671789999763746</v>
+        <v>0.7921675023307557</v>
       </c>
       <c r="C19">
-        <v>0.4950531543778425</v>
+        <v>1.188681884160985</v>
       </c>
       <c r="D19">
-        <v>0.09843637886405077</v>
+        <v>0.279727496082387</v>
       </c>
       <c r="E19">
-        <v>0.1439297169890779</v>
+        <v>0.4174419112715242</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002556208983901861</v>
+        <v>0.0007940145847168603</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.731794095457758</v>
+        <v>13.36086065105587</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8062480159774736</v>
+        <v>1.752756859276445</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3796723777594337</v>
+        <v>0.9551502085360255</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3710795846238284</v>
+        <v>0.8347429050433277</v>
       </c>
       <c r="C20">
-        <v>0.5077395799179385</v>
+        <v>1.239520433731229</v>
       </c>
       <c r="D20">
-        <v>0.1014201013010165</v>
+        <v>0.2923108841870601</v>
       </c>
       <c r="E20">
-        <v>0.1484531149593238</v>
+        <v>0.4362868661287607</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002554122475549994</v>
+        <v>0.0007894837347609196</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.873357284492442</v>
+        <v>13.89105265942419</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8206384886090348</v>
+        <v>1.83589914129621</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3888875353987444</v>
+        <v>0.9992350998105692</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3850290318513885</v>
+        <v>0.9862097582529259</v>
       </c>
       <c r="C21">
-        <v>0.5505656019679463</v>
+        <v>1.415266112593258</v>
       </c>
       <c r="D21">
-        <v>0.1115066837796803</v>
+        <v>0.3358902694953514</v>
       </c>
       <c r="E21">
-        <v>0.1637274893725618</v>
+        <v>0.5016521333519037</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002547315144847941</v>
+        <v>0.0007741777433519315</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.348846193260215</v>
+        <v>15.72092086973794</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8700117337219808</v>
+        <v>2.127294500052983</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4201984401742465</v>
+        <v>1.152901221632142</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3947844458495524</v>
+        <v>1.092730559549125</v>
       </c>
       <c r="C22">
-        <v>0.5787093793788358</v>
+        <v>1.534536692102961</v>
       </c>
       <c r="D22">
-        <v>0.1181460660639004</v>
+        <v>0.3655342115064713</v>
       </c>
       <c r="E22">
-        <v>0.1737692991173674</v>
+        <v>0.5462100248862569</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002543016578669899</v>
+        <v>0.0007640635926480943</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.659560636549486</v>
+        <v>16.96050431761938</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.903054366896697</v>
+        <v>2.328498277661083</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4409278132319514</v>
+        <v>1.2582956093447</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3895187394163315</v>
+        <v>1.035100026602038</v>
       </c>
       <c r="C23">
-        <v>0.563674092438589</v>
+        <v>1.470424160736513</v>
       </c>
       <c r="D23">
-        <v>0.1145981015604747</v>
+        <v>0.3495926522739552</v>
       </c>
       <c r="E23">
-        <v>0.1684042438789604</v>
+        <v>0.5222383394222447</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002545297099904363</v>
+        <v>0.0007694753223955927</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.493726572825153</v>
+        <v>16.29438776429225</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.885347274439539</v>
+        <v>2.220000577662944</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4298394645742292</v>
+        <v>1.201531193659562</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3708622320845905</v>
+        <v>0.8323760538377769</v>
       </c>
       <c r="C24">
-        <v>0.507042155581189</v>
+        <v>1.236711739443308</v>
       </c>
       <c r="D24">
-        <v>0.1012560205942634</v>
+        <v>0.2916154131625888</v>
       </c>
       <c r="E24">
-        <v>0.1482044297648812</v>
+        <v>0.4352449957467641</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002554236290380429</v>
+        <v>0.0007897327471535269</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.865584009398077</v>
+        <v>13.86177189038315</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8198444127242794</v>
+        <v>1.831292106747128</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3883801832159008</v>
+        <v>0.9967952005812037</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3534183430525673</v>
+        <v>0.6384661729698564</v>
       </c>
       <c r="C25">
-        <v>0.4465901665128627</v>
+        <v>0.9991152187301964</v>
       </c>
       <c r="D25">
-        <v>0.08705909837364345</v>
+        <v>0.232900407679395</v>
       </c>
       <c r="E25">
-        <v>0.126655266782187</v>
+        <v>0.3474192116623058</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002564530434037593</v>
+        <v>0.0008114045300768537</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.187433704547914</v>
+        <v>11.37968662921608</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7524378768213751</v>
+        <v>1.447452240018293</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3447650345438902</v>
+        <v>0.7922509804760693</v>
       </c>
       <c r="N25">
         <v>0</v>
